--- a/PERI_member_database.xlsx
+++ b/PERI_member_database.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\add41\Documents\Data_Engineer\Project\PERI-Member-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8C9823-0286-4124-946A-C4A9CB6D38F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD5CB13-3887-465D-B67A-E8580AE0EFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{EB06E2DA-F4D9-4A1C-A822-3C79BDAE177E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{EB06E2DA-F4D9-4A1C-A822-3C79BDAE177E}"/>
   </bookViews>
   <sheets>
     <sheet name="A_main" sheetId="1" r:id="rId1"/>
     <sheet name="B_event" sheetId="2" r:id="rId2"/>
+    <sheet name="C_member" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>會員姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>購買堂數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剩餘堂數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +69,32 @@
   </si>
   <si>
     <t>單堂金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員姓名</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>電話</t>
+  </si>
+  <si>
+    <t>加入日期</t>
+  </si>
+  <si>
+    <t>加入時間</t>
+  </si>
+  <si>
+    <t>堂數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,6 +118,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,12 +134,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -118,12 +163,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB26F87A-FCAB-4F73-BD1F-844F668F8996}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -450,30 +498,33 @@
     <col min="1" max="16384" width="13.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -484,47 +535,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A467440E-4110-4F9A-8052-56A9177FAF77}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="7" width="12.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F70FD78-24F3-4E40-B262-79BCB9BCBC45}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/PERI_member_database.xlsx
+++ b/PERI_member_database.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\add41\Documents\Data_Engineer\Project\PERI-Member-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD5CB13-3887-465D-B67A-E8580AE0EFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F967C4EF-571E-4764-80E6-759019E4A73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{EB06E2DA-F4D9-4A1C-A822-3C79BDAE177E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{EB06E2DA-F4D9-4A1C-A822-3C79BDAE177E}"/>
   </bookViews>
   <sheets>
     <sheet name="A_main" sheetId="1" r:id="rId1"/>
     <sheet name="B_event" sheetId="2" r:id="rId2"/>
     <sheet name="C_member" sheetId="3" r:id="rId3"/>
+    <sheet name="menu" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>會員姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +96,50 @@
   </si>
   <si>
     <t>方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一對一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一對二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>團體課</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,24 +580,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A467440E-4110-4F9A-8052-56A9177FAF77}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="7" width="12.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="6" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -560,27 +605,24 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -592,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F70FD78-24F3-4E40-B262-79BCB9BCBC45}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -606,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -619,6 +661,222 @@
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636D61AB-839A-46EA-AFB5-801C229AD3C2}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2600</v>
+      </c>
+      <c r="E2" s="1">
+        <f>C2*D2</f>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1950</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E11" si="0">C3*D3</f>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1850</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1850</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>29600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3800</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3200</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>900</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>800</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>6400</v>
       </c>
     </row>
   </sheetData>

--- a/PERI_member_database.xlsx
+++ b/PERI_member_database.xlsx
@@ -1,185 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\add41\Documents\Data_Engineer\Project\PERI-Member-System\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F967C4EF-571E-4764-80E6-759019E4A73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{EB06E2DA-F4D9-4A1C-A822-3C79BDAE177E}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="A_main" sheetId="1" r:id="rId1"/>
-    <sheet name="B_event" sheetId="2" r:id="rId2"/>
-    <sheet name="C_member" sheetId="3" r:id="rId3"/>
-    <sheet name="menu" sheetId="4" r:id="rId4"/>
+    <sheet name="A_main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="B_event" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="C_member" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="menu" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
-  <si>
-    <t>會員姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>匯款末五碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩餘堂數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩餘金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>預收款餘額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案總金額</t>
-  </si>
-  <si>
-    <t>單堂金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會員姓名</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>生日</t>
-  </si>
-  <si>
-    <t>電話</t>
-  </si>
-  <si>
-    <t>加入日期</t>
-  </si>
-  <si>
-    <t>加入時間</t>
-  </si>
-  <si>
-    <t>堂數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一對一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一對二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>團體課</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="1"/>
+      <b val="1"/>
       <sz val="11"/>
+    </font>
+    <font>
       <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -202,36 +87,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -531,356 +520,662 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB26F87A-FCAB-4F73-BD1F-844F668F8996}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="16384" width="13.44140625" style="1"/>
+    <col width="13.44140625" customWidth="1" style="1" min="1" max="3"/>
+    <col width="13.44140625" customWidth="1" style="1" min="4" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>會員姓名</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>生日</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>電話</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>匯款末五碼</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>剩餘堂數</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>單堂金額</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>剩餘金額</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>預收款餘額</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A467440E-4110-4F9A-8052-56A9177FAF77}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="6" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>會員姓名</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>方案</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>堂數</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>單堂金額</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>方案總金額</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>付款方式</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>匯款末五碼</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>交易日期</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>交易時間</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>王小明</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>qaz@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F2" t="n">
+        <v>29600</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>匯款</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>78965</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>10:18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>王小明</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>qaz@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2"/>
+      <c r="E3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>51000</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>匯款</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>78653</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>10:34:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>王小明</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>qaz@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F4" t="n">
+        <v>31450</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>匯款</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>77863</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>10:36:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>王小明</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>qaz@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F5" t="n">
+        <v>29600</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>10:39:34</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F70FD78-24F3-4E40-B262-79BCB9BCBC45}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="6" width="10.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>會員姓名</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>生日</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>電話</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>加入日期</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>加入時間</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>王小明</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>qaz@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>1995-12-25</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>0988777444</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>09:57:24</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636D61AB-839A-46EA-AFB5-801C229AD3C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" style="1"/>
+    <col width="8.88671875" customWidth="1" style="1" min="1" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>一對一</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="n">
         <v>2600</v>
       </c>
-      <c r="E2" s="1">
-        <f>C2*D2</f>
+      <c r="E2" s="1" t="n">
         <v>2600</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>一對一</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E11" si="0">C3*D3</f>
+      <c r="E3" s="1" t="n">
         <v>7800</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>一對一</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="n">
         <v>1850</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
+      <c r="E4" s="1" t="n">
         <v>14800</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>一對一</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>1850</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
+      <c r="E5" s="1" t="n">
         <v>29600</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>一對二</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="n">
         <v>3800</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
+      <c r="E6" s="1" t="n">
         <v>3800</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>一對二</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="n">
         <v>3200</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
+      <c r="E7" s="1" t="n">
         <v>12800</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>一對二</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
+      <c r="E8" s="1" t="n">
         <v>24000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>一對二</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
+      <c r="E9" s="1" t="n">
         <v>48000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>團體課</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
+      <c r="E10" s="1" t="n">
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>團體課</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
+      <c r="E11" s="1" t="n">
         <v>6400</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PERI_member_database.xlsx
+++ b/PERI_member_database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="A_main" sheetId="1" state="visible" r:id="rId1"/>
@@ -129,7 +129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,9 +142,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -533,8 +537,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="13.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col width="13.44140625" customWidth="1" style="1" min="1" max="3"/>
-    <col width="13.44140625" customWidth="1" style="1" min="4" max="16384"/>
+    <col width="13.44140625" customWidth="1" style="1" min="1" max="5"/>
+    <col width="13.44140625" customWidth="1" style="1" min="6" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -604,52 +608,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>會員姓名</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>方案</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>堂數</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>單堂金額</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>方案總金額</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>付款方式</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>匯款末五碼</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>交易日期</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>交易時間</t>
         </is>
@@ -668,17 +672,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>1850</v>
+        <v>2823.53</v>
       </c>
       <c r="F2" t="n">
-        <v>29600</v>
+        <v>48000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -686,7 +690,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>78965</v>
+        <v>12345</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -695,19 +699,19 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>10:18:59</t>
+          <t>15:21:39</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>王小明</t>
+          <t>林小美</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>qaz@gmail.com</t>
+          <t>wsx@gmail.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,18 +723,20 @@
         <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>3000</v>
+        <v>2823.53</v>
       </c>
       <c r="F3" t="n">
-        <v>51000</v>
+        <v>48000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>匯款</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>78653</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>54321</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -739,7 +745,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10:34:34</t>
+          <t>15:28:58</t>
         </is>
       </c>
     </row>
@@ -760,21 +766,23 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>1850</v>
+        <v>1950</v>
       </c>
       <c r="F4" t="n">
-        <v>31450</v>
+        <v>7800</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>匯款</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>77863</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -783,43 +791,43 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10:36:28</t>
+          <t>15:29:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>王小明</t>
+          <t>林小美</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>qaz@gmail.com</t>
+          <t>wsx@gmail.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>1850</v>
+        <v>3000</v>
       </c>
       <c r="F5" t="n">
-        <v>29600</v>
+        <v>24000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>現金</t>
+          <t>匯款</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>54321</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -829,7 +837,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>10:39:34</t>
+          <t>15:29:43</t>
         </is>
       </c>
     </row>
@@ -844,41 +852,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>會員姓名</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>生日</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>電話</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>加入日期</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>加入時間</t>
         </is>
@@ -900,10 +908,8 @@
           <t>1995-12-25</t>
         </is>
       </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>0988777444</t>
-        </is>
+      <c r="D2" s="0" t="n">
+        <v>988777444</v>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
@@ -913,6 +919,38 @@
       <c r="F2" s="0" t="inlineStr">
         <is>
           <t>09:57:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>林小美</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>wsx@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>1997-03-15</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>0988655322</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>15:21:06</t>
         </is>
       </c>
     </row>
@@ -929,8 +967,8 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
@@ -982,8 +1020,9 @@
       <c r="D2" s="1" t="n">
         <v>2600</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>2600</v>
+      <c r="E2" s="1">
+        <f>C2*D2</f>
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -1003,8 +1042,9 @@
       <c r="D3" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>7800</v>
+      <c r="E3" s="1">
+        <f>C3*D3</f>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -1024,8 +1064,9 @@
       <c r="D4" s="1" t="n">
         <v>1850</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>14800</v>
+      <c r="E4" s="1">
+        <f>C4*D4</f>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -1043,10 +1084,11 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>1850</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>29600</v>
+        <v>1741.18</v>
+      </c>
+      <c r="E5" s="4">
+        <f>C5*D5</f>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -1066,8 +1108,9 @@
       <c r="D6" s="1" t="n">
         <v>3800</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>3800</v>
+      <c r="E6" s="1">
+        <f>C6*D6</f>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -1087,8 +1130,9 @@
       <c r="D7" s="1" t="n">
         <v>3200</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>12800</v>
+      <c r="E7" s="1">
+        <f>C7*D7</f>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -1108,8 +1152,9 @@
       <c r="D8" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>24000</v>
+      <c r="E8" s="1">
+        <f>C8*D8</f>
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -1127,10 +1172,11 @@
         <v>17</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>48000</v>
+        <v>2823.53</v>
+      </c>
+      <c r="E9" s="4">
+        <f>C9*D9</f>
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -1150,8 +1196,9 @@
       <c r="D10" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <v>3600</v>
+      <c r="E10" s="1">
+        <f>C10*D10</f>
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -1171,8 +1218,9 @@
       <c r="D11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="E11" s="1" t="n">
-        <v>6400</v>
+      <c r="E11" s="1">
+        <f>C11*D11</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/PERI_member_database.xlsx
+++ b/PERI_member_database.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="A_main" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="B_event" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="C_member" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="menu" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="backup" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -48,9 +49,10 @@
       <sz val="12"/>
     </font>
     <font>
-      <name val="新細明體"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
       <b val="1"/>
-      <sz val="12"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -64,27 +66,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -139,17 +126,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -529,67 +518,186 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="13.44140625" defaultRowHeight="16.2"/>
-  <cols>
-    <col width="13.44140625" customWidth="1" style="1" min="1" max="5"/>
-    <col width="13.44140625" customWidth="1" style="1" min="6" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>會員姓名</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>生日</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>電話</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>匯款末五碼</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>方案</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>剩餘堂數</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>單堂金額</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>剩餘金額</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>預收款餘額</t>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>平均單堂金額</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>剩餘預收款項</t>
+        </is>
+      </c>
+      <c r="I1" s="7" t="inlineStr">
+        <is>
+          <t>最近交易日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>林小美</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>wsx@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1997-03-15</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0988655322</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2880</v>
+      </c>
+      <c r="H2" t="n">
+        <v>69120</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>王小明</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>qaz@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1995-12-25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0988777444</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1950</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7800</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>王小明</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>qaz@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1995-12-25</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0988777444</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2823.53</v>
+      </c>
+      <c r="H4" t="n">
+        <v>45176.47</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -599,245 +707,331 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>會員姓名</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>方案</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>堂數</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>單堂金額</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>方案總金額</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>付款方式</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>匯款末五碼</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>交易日期</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>交易時間</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>王小明</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>qaz@gmail.com</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="0" t="n">
         <v>2823.53</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="0" t="n">
         <v>48000</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="0" t="inlineStr">
         <is>
           <t>匯款</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="0" t="n">
         <v>12345</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="0" t="inlineStr">
         <is>
           <t>2025-12-08</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="0" t="inlineStr">
         <is>
           <t>15:21:39</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>林小美</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>wsx@gmail.com</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="0" t="n">
         <v>2823.53</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="0" t="n">
         <v>48000</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="0" t="inlineStr">
         <is>
           <t>匯款</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>54321</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="H3" s="0" t="n">
+        <v>54321</v>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
         <is>
           <t>2025-12-08</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="0" t="inlineStr">
         <is>
           <t>15:28:58</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>王小明</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>qaz@gmail.com</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="0" t="n">
         <v>1950</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="0" t="n">
         <v>7800</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="0" t="inlineStr">
         <is>
           <t>匯款</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="H4" s="0" t="n">
+        <v>12345</v>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
         <is>
           <t>2025-12-08</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="0" t="inlineStr">
         <is>
           <t>15:29:24</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>林小美</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>wsx@gmail.com</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="0" t="n">
         <v>24000</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="0" t="inlineStr">
         <is>
           <t>匯款</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>54321</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="H5" s="0" t="n">
+        <v>54321</v>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
         <is>
           <t>2025-12-08</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="0" t="inlineStr">
         <is>
           <t>15:29:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>王小明</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>qaz@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2823.53</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>-2823.53</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>上課</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>11:07:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>林小美</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>wsx@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2880</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>-2880</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>上課</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>11:08:08</t>
         </is>
       </c>
     </row>
@@ -854,39 +1048,42 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
+  <cols>
+    <col width="36.21875" customWidth="1" style="6" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>會員姓名</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>生日</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>電話</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>加入日期</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>加入時間</t>
         </is>
@@ -908,8 +1105,10 @@
           <t>1995-12-25</t>
         </is>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>988777444</v>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>0988777444</t>
+        </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
@@ -938,7 +1137,7 @@
           <t>1997-03-15</t>
         </is>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>0988655322</t>
         </is>
@@ -1086,7 +1285,7 @@
       <c r="D5" s="1" t="n">
         <v>1741.18</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f>C5*D5</f>
         <v/>
       </c>
@@ -1174,7 +1373,7 @@
       <c r="D9" s="1" t="n">
         <v>2823.53</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f>C9*D9</f>
         <v/>
       </c>
@@ -1221,6 +1420,67 @@
       <c r="E11" s="1">
         <f>C11*D11</f>
         <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>會員姓名</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>生日</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>電話</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>剩餘堂數</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>平均單堂金額</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>剩餘預收款項</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>最近交易日期</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/PERI_member_database.xlsx
+++ b/PERI_member_database.xlsx
@@ -3,14 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="A_main" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="B_event" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="C_member" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="menu" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="backup" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -20,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <name val="新細明體"/>
       <charset val="136"/>
@@ -38,21 +37,8 @@
     </font>
     <font>
       <name val="新細明體"/>
-      <charset val="136"/>
-      <family val="1"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
       <b val="1"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Microsoft JhengHei"/>
-      <family val="1"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -66,27 +52,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -116,29 +87,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -518,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,47 +489,47 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>會員姓名</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>生日</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>電話</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>方案</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>剩餘堂數</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>平均單堂金額</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>剩餘預收款項</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>最近交易日期</t>
         </is>
@@ -693,6 +655,47 @@
       <c r="I4" t="inlineStr">
         <is>
           <t>2025-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>羅大佑</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>edc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1968-12-15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0966333222</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1950</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
         </is>
       </c>
     </row>
@@ -707,7 +710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,52 +719,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>會員姓名</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>方案</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>堂數</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>單堂金額</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>方案總金額</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>付款方式</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>匯款末五碼</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>交易日期</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>交易時間</t>
         </is>
@@ -797,8 +800,10 @@
           <t>匯款</t>
         </is>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>12345</v>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
@@ -841,8 +846,10 @@
           <t>匯款</t>
         </is>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>54321</v>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>54321</t>
+        </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
@@ -885,8 +892,10 @@
           <t>匯款</t>
         </is>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>12345</v>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
@@ -929,8 +938,10 @@
           <t>匯款</t>
         </is>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>54321</v>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>54321</t>
+        </is>
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
@@ -1032,6 +1043,144 @@
       <c r="J7" s="0" t="inlineStr">
         <is>
           <t>11:08:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>羅大佑</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>edc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1950</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>7800</v>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>匯款</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>88996</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>10:53:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>羅大佑</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>edc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1950</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>-1950</v>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>上課</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>10:58:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>羅大佑</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>edc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1950</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>-1950</v>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>上課</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>11:13:20</t>
         </is>
       </c>
     </row>
@@ -1046,16 +1195,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
-  <cols>
-    <col width="36.21875" customWidth="1" style="6" min="4" max="4"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="inlineStr">
@@ -1073,7 +1219,7 @@
           <t>生日</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>電話</t>
         </is>
@@ -1105,7 +1251,7 @@
           <t>1995-12-25</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>0988777444</t>
         </is>
@@ -1137,7 +1283,7 @@
           <t>1997-03-15</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>0988655322</t>
         </is>
@@ -1150,6 +1296,70 @@
       <c r="F3" s="0" t="inlineStr">
         <is>
           <t>15:21:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>羅大佑</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>edc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>1968-12-15</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>0966333222</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>10:48:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>陳柏蒼</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>add412@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>1992-10-01</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>0999666333</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>11:20:56</t>
         </is>
       </c>
     </row>
@@ -1166,8 +1376,8 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
@@ -1285,7 +1495,7 @@
       <c r="D5" s="1" t="n">
         <v>1741.18</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f>C5*D5</f>
         <v/>
       </c>
@@ -1373,7 +1583,7 @@
       <c r="D9" s="1" t="n">
         <v>2823.53</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f>C9*D9</f>
         <v/>
       </c>
@@ -1420,67 +1630,6 @@
       <c r="E11" s="1">
         <f>C11*D11</f>
         <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>會員姓名</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>生日</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>電話</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>剩餘堂數</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>平均單堂金額</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>剩餘預收款項</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>最近交易日期</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/PERI_member_database.xlsx
+++ b/PERI_member_database.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3276" yWindow="3276" windowWidth="17280" windowHeight="9960" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="A_main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="B_event" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="C_member" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="menu" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="A_main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B_event" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C_member" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="coach" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="menu" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -19,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="新細明體"/>
       <charset val="136"/>
@@ -41,6 +42,18 @@
       <sz val="12"/>
     </font>
     <font>
+      <name val="新細明體"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="1"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -52,12 +65,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -87,7 +115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -103,6 +131,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -480,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,47 +533,47 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>會員編號</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>會員姓名</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>生日</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>電話</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>方案</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>剩餘堂數</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>平均單堂金額</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>剩餘預收款項</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="9" t="inlineStr">
         <is>
           <t>最近交易日期</t>
         </is>
@@ -538,164 +582,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>林小美</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>wsx@gmail.com</t>
+          <t>王小明</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1997-03-15</t>
+          <t>1978-02-16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0988655322</t>
+          <t>0966222333</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>一對一</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>2880</v>
+        <v>1950</v>
       </c>
       <c r="H2" t="n">
-        <v>69120</v>
+        <v>5850</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>王小明</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>qaz@gmail.com</t>
+          <t>林小美</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1995-12-25</t>
+          <t>1986-02-17</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0988777444</t>
+          <t>0956333222</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>一對二</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>1950</v>
+        <v>3123.08</v>
       </c>
       <c r="H3" t="n">
-        <v>7800</v>
+        <v>34353.84</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>王小明</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>qaz@gmail.com</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1995-12-25</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0988777444</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>16</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2823.53</v>
-      </c>
-      <c r="H4" t="n">
-        <v>45176.47</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-12-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>羅大佑</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>edc@gmail.com</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1968-12-15</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0966333222</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1950</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3900</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-12-10</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -710,61 +672,66 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>會員編號</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>會員姓名</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>方案</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>堂數</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>單堂金額</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>方案總金額</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>教練</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>付款方式</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="9" t="inlineStr">
         <is>
           <t>匯款末五碼</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>交易日期</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>交易時間</t>
         </is>
@@ -773,414 +740,343 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
           <t>王小明</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>qaz@gmail.com</t>
-        </is>
-      </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>一對一</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2823.53</v>
+        <v>1950</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>48000</v>
-      </c>
-      <c r="G2" s="0" t="inlineStr">
+        <v>7800</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
         <is>
           <t>匯款</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>56338</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>15:21:39</t>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>20:54:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
           <t>林小美</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>wsx@gmail.com</t>
-        </is>
-      </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>一對二</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2823.53</v>
+        <v>3000</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>48000</v>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>匯款</t>
-        </is>
+        <v>24000</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>300</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>54321</t>
+          <t>現金</t>
         </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>無</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>15:28:58</t>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>20:55:55</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>王小明</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>qaz@gmail.com</t>
+          <t>林小美</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>一對二</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1950</v>
+        <v>3200</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>7800</v>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>匯款</t>
-        </is>
+        <v>12800</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>300</v>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>現金</t>
         </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>無</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>15:29:24</t>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>20:56:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
           <t>林小美</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>wsx@gmail.com</t>
-        </is>
-      </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>一對二</t>
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>24000</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>匯款</t>
-        </is>
+        <v>3800</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>300</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>54321</t>
+          <t>現金</t>
         </is>
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>無</t>
         </is>
       </c>
       <c r="J5" s="0" t="inlineStr">
         <is>
-          <t>15:29:43</t>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>20:56:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
           <t>王小明</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>qaz@gmail.com</t>
-        </is>
-      </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>一對一</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2823.53</v>
+        <v>1950</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>-2823.53</v>
-      </c>
-      <c r="G6" s="0" t="inlineStr">
+        <v>-1950</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>上課</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
+      <c r="I6" s="0" t="inlineStr">
         <is>
           <t>無</t>
         </is>
       </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>2025-12-09</t>
-        </is>
-      </c>
       <c r="J6" s="0" t="inlineStr">
         <is>
-          <t>11:07:35</t>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>20:57:55</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
           <t>林小美</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>wsx@gmail.com</t>
-        </is>
-      </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>一對二</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2880</v>
+        <v>3123.08</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-2880</v>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
+        <v>-3123.08</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
         <is>
           <t>上課</t>
         </is>
       </c>
-      <c r="H7" s="0" t="inlineStr">
+      <c r="I7" s="0" t="inlineStr">
         <is>
           <t>無</t>
         </is>
       </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>2025-12-09</t>
-        </is>
-      </c>
       <c r="J7" s="0" t="inlineStr">
         <is>
-          <t>11:08:08</t>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>20:58:14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>羅大佑</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>edc@gmail.com</t>
+          <t>林小美</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>一對二</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1950</v>
+        <v>3123.08</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>7800</v>
-      </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t>匯款</t>
-        </is>
+        <v>-3123.08</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>600</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>88996</t>
+          <t>上課</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>無</t>
         </is>
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>10:53:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>羅大佑</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>edc@gmail.com</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1950</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>-1950</v>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t>上課</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>無</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>2025-12-10</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="inlineStr">
-        <is>
-          <t>10:58:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>羅大佑</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>edc@gmail.com</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1950</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>-1950</v>
-      </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t>上課</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>無</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>2025-12-10</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="inlineStr">
-        <is>
-          <t>11:13:20</t>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>20:58:16</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1204,32 +1100,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>會員編號</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>會員姓名</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>生日</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>電話</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>教練</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>加入日期</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>加入時間</t>
         </is>
@@ -1238,128 +1139,70 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
           <t>王小明</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>qaz@gmail.com</t>
-        </is>
-      </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>1995-12-25</t>
+          <t>1978-02-16</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>0988777444</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>2025-12-08</t>
-        </is>
+          <t>0966222333</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>09:57:24</t>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>20:52:19</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
           <t>林小美</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>wsx@gmail.com</t>
-        </is>
-      </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>1997-03-15</t>
+          <t>1986-02-17</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>0988655322</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>2025-12-08</t>
-        </is>
+          <t>0956333222</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>300</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>15:21:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>羅大佑</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>edc@gmail.com</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>1968-12-15</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>0966333222</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>2025-12-10</t>
-        </is>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>10:48:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>陳柏蒼</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>add412@gmail.com</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>1992-10-01</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>0999666333</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>2025-12-10</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>11:20:56</t>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>20:53:04</t>
         </is>
       </c>
     </row>
@@ -1374,10 +1217,130 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
+  <cols>
+    <col width="16" customWidth="1" style="10" min="1" max="1"/>
+    <col width="11.6640625" customWidth="1" style="10" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>教練編號</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>會員編號</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>老莊</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>黃寧</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>ADI</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Puma</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>晉丞</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
@@ -1503,7 +1466,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">

--- a/PERI_member_database.xlsx
+++ b/PERI_member_database.xlsx
@@ -524,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,39 +623,80 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TestBrowserUser</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2000-01-01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>一對一</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2600</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5200</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>321</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>林小美</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>1986-02-17</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>0956333222</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>一對二</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F4" t="n">
         <v>11</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>3123.08</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>34353.84</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>2025-12-14</t>
         </is>
@@ -672,7 +713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,6 +1118,190 @@
       <c r="K8" s="0" t="inlineStr">
         <is>
           <t>20:58:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>TestBrowserUser</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>一對一</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2600</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" s="0" t="inlineStr"/>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>21:16:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>TestBrowserUser</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>一對一</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2600</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" s="0" t="inlineStr"/>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>21:17:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>TestBrowserUser</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>一對一</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2600</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" s="0" t="inlineStr"/>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>21:17:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>TestBrowserUser</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>一對一</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>-2600</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>上課</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>21:19:25</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1203,6 +1428,41 @@
       <c r="G3" s="0" t="inlineStr">
         <is>
           <t>20:53:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>TestBrowserUser</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>2000-01-01</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>21:14:07</t>
         </is>
       </c>
     </row>

--- a/PERI_member_database.xlsx
+++ b/PERI_member_database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3276" yWindow="3276" windowWidth="17280" windowHeight="9960" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="A_main" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <name val="新細明體"/>
       <charset val="136"/>
@@ -42,18 +42,6 @@
       <sz val="12"/>
     </font>
     <font>
-      <name val="新細明體"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="136"/>
-      <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -65,27 +53,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -115,7 +88,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -125,28 +98,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -524,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,47 +494,47 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>會員編號</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>會員姓名</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>生日</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>電話</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>方案</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>剩餘堂數</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>平均單堂金額</t>
         </is>
       </c>
-      <c r="H1" s="9" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>剩餘預收款項</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>最近交易日期</t>
         </is>
@@ -623,17 +584,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TestBrowserUser</t>
+          <t>TestUser</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2000-01-01</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -643,60 +604,101 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>一對一</t>
+          <t>特殊課程</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="G3" t="n">
-        <v>2600</v>
+        <v>1008.07</v>
       </c>
       <c r="H3" t="n">
-        <v>5200</v>
+        <v>125001</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TestBrowserUser</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2000-01-01</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>一對一</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2600</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5200</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>321</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>林小美</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>1986-02-17</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>0956333222</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>一對二</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>11</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>3123.08</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>34353.84</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>2025-12-14</t>
         </is>
@@ -713,7 +715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,57 +724,57 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>會員編號</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>會員姓名</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>方案</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>堂數</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>單堂金額</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>方案總金額</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>教練</t>
         </is>
       </c>
-      <c r="H1" s="9" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>付款方式</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>匯款末五碼</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>交易日期</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>交易時間</t>
         </is>
@@ -1302,6 +1304,447 @@
       <c r="K12" s="0" t="inlineStr">
         <is>
           <t>21:19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>TestUser</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>特殊課程</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>121000</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>16:40:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>TestUser</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>特殊課程</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>-1100</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>上課</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>16:41:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>TestUser</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>特殊課程</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>16:43:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>TestUser</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>特殊課程</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t>16:45:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>TestUser</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>特殊課程</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>16:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>TestUser</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>特殊課程</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>19:32:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>TestUser</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>特殊課程</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>19:34:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>TestUser</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>特殊課程</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>19:34:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>TestUser</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>特殊課程</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>19:35:54</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1325,37 +1768,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>會員編號</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>會員姓名</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>生日</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>電話</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>教練</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>加入日期</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>加入時間</t>
         </is>
@@ -1463,6 +1906,41 @@
       <c r="G4" s="0" t="inlineStr">
         <is>
           <t>21:14:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>TestUser</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>16:35:00</t>
         </is>
       </c>
     </row>
@@ -1485,8 +1963,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
   <cols>
-    <col width="16" customWidth="1" style="10" min="1" max="1"/>
-    <col width="11.6640625" customWidth="1" style="10" min="3" max="3"/>
+    <col width="16" customWidth="1" style="5" min="1" max="1"/>
+    <col width="11.6640625" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1531,7 +2009,7 @@
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="n"/>
+      <c r="E3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
@@ -1599,8 +2077,8 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>

--- a/PERI_member_database.xlsx
+++ b/PERI_member_database.xlsx
@@ -608,13 +608,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" t="n">
         <v>1008.07</v>
       </c>
       <c r="H3" t="n">
-        <v>125001</v>
+        <v>123992.93</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1745,6 +1745,55 @@
       <c r="K21" s="0" t="inlineStr">
         <is>
           <t>19:35:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>TestUser</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>特殊課程</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1008.07</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>-1008.07</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>上課</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>20:37:08</t>
         </is>
       </c>
     </row>

--- a/PERI_member_database.xlsx
+++ b/PERI_member_database.xlsx
@@ -567,17 +567,17 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>1950</v>
       </c>
       <c r="H2" t="n">
-        <v>5850</v>
+        <v>3900</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-15</t>
         </is>
       </c>
     </row>
@@ -649,17 +649,17 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>2600</v>
       </c>
       <c r="H4" t="n">
-        <v>5200</v>
+        <v>2600</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-15</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1794,6 +1794,104 @@
       <c r="K22" s="0" t="inlineStr">
         <is>
           <t>20:37:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>王小明</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>一對一</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1950</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>-1950</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>上課</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>20:56:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>TestBrowserUser</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>一對一</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>-2600</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>上課</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>20:56:37</t>
         </is>
       </c>
     </row>

--- a/PERI_member_database.xlsx
+++ b/PERI_member_database.xlsx
@@ -567,17 +567,17 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-16</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1892,6 +1892,55 @@
       <c r="K24" s="0" t="inlineStr">
         <is>
           <t>20:56:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>王小明</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>一對一</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1950</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>-3900</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>退款</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>11:12:58</t>
         </is>
       </c>
     </row>
